--- a/docs/odh/obf-Condition-extension.xlsx
+++ b/docs/odh/obf-Condition-extension.xlsx
@@ -139,7 +139,7 @@
   <si>
     <t>A condition that is or may be present in a subject. 'Condition' is interpreted broadly and could be a disorder, abnormality, problem, injury, complaint, functionality, illness, disease, ailment, sickness, affliction, upset, difficulty, disorder, symptom, worry, or trouble.
 The Observation-based class, ConditionAbsent, should be used to describe conditions that are not present or negative findings.
-SHR Condition uses the SHR BodyLocation structure that includes not only a code, but optional laterality, direction, clock direction, and distance. If included, the distance is measured from the location specified by the code, laterality, and direction.</t>
+This profiled Condition uses the BodyLocation structure that includes not only a code, but optional laterality, direction, and relation to landmark(s).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -224,7 +224,7 @@
     <t>Extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Condition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition)
 </t>
   </si>
   <si>
